--- a/bdl/tabela.xlsx
+++ b/bdl/tabela.xlsx
@@ -6395,7 +6395,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6407,7 +6407,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6431,7 +6431,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6447,7 +6447,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6455,7 +6455,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6489,11 +6489,11 @@
   </sheetPr>
   <dimension ref="A1:I899"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I418" activeCellId="0" sqref="I:I"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E351" activeCellId="0" sqref="E351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28"/>
